--- a/results/ICS_bertopic_combined_topics_Jul-15-2022/hazard_extraction_mismatches.xlsx
+++ b/results/ICS_bertopic_combined_topics_Jul-15-2022/hazard_extraction_mismatches.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Evacuations" sheetId="1" r:id="rId1"/>
     <sheet name="Hazardous Terrain" sheetId="2" r:id="rId2"/>
-    <sheet name="Innacurate Mapping" sheetId="3" r:id="rId3"/>
+    <sheet name="Inaccurate Mapping" sheetId="3" r:id="rId3"/>
     <sheet name="Ecological Resources" sheetId="4" r:id="rId4"/>
     <sheet name="Command Transition" sheetId="5" r:id="rId5"/>
     <sheet name="Wind" sheetId="6" r:id="rId6"/>
